--- a/result/TrailATR/summary_NSDQ_M5_2017-2020_0.xlsx
+++ b/result/TrailATR/summary_NSDQ_M5_2017-2020_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:T1"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,402 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G2" t="n">
+        <v>35</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>35</v>
+      </c>
+      <c r="J2" t="n">
+        <v>160</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-163303.8999999992</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-82604.30000000012</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24927</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-80699.59999999912</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-7466.5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>905.3000000000002</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-3.237437316965504</v>
+      </c>
+      <c r="R2" t="n">
+        <v>157.84822387769</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-2.099999999999454</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.2354475067196213</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G3" t="n">
+        <v>40</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>40</v>
+      </c>
+      <c r="J3" t="n">
+        <v>160</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-178273.0999999989</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-89838.9000000001</v>
+      </c>
+      <c r="M3" t="n">
+        <v>23501</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-88434.19999999885</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-7466.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>883.2000000000007</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-3.762997319262961</v>
+      </c>
+      <c r="R3" t="n">
+        <v>169.5888451527937</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-2.100000000000364</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2302455214671716</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G4" t="n">
+        <v>65</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>100</v>
+      </c>
+      <c r="J4" t="n">
+        <v>200</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-182837.9999999988</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-92018.69999999933</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15432</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-90819.29999999949</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-7467.400000000001</v>
+      </c>
+      <c r="P4" t="n">
+        <v>772.1000000000004</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-5.885128304821118</v>
+      </c>
+      <c r="R4" t="n">
+        <v>208.9686584947216</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-2.300000000001091</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.2003628823224469</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>35</v>
+      </c>
+      <c r="J5" t="n">
+        <v>80</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-327648.7999999996</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-164441.4000000003</v>
+      </c>
+      <c r="M5" t="n">
+        <v>16610</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-163207.3999999994</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-7626.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>837.5999999999995</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-9.825851896447885</v>
+      </c>
+      <c r="R5" t="n">
+        <v>272.5506006628595</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-2.899999999999636</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.2170379289584587</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G6" t="n">
+        <v>100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>75</v>
+      </c>
+      <c r="J6" t="n">
+        <v>200</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-368866.9000000001</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-186381.8999999997</v>
+      </c>
+      <c r="M6" t="n">
+        <v>15845</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-182485.0000000005</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-7629.900000000001</v>
+      </c>
+      <c r="P6" t="n">
+        <v>820.8000000000002</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-11.51688229725468</v>
+      </c>
+      <c r="R6" t="n">
+        <v>297.8119601456686</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-2.800000000000182</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.1904070684758599</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NSDQ</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G7" t="n">
+        <v>85</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>40</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-371529.4000000013</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-186474.500000001</v>
+      </c>
+      <c r="M7" t="n">
+        <v>21946</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-185054.9000000003</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-7626.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>582.8999999999996</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-8.43228378747837</v>
+      </c>
+      <c r="R7" t="n">
+        <v>252.6283375517356</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-2.599999999999454</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.2359427686138704</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
